--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_72.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_72.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tomoya Takahashi</t>
+          <t>Kana Yoshida</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
